--- a/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
+++ b/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>173550</t>
+  </si>
   <si>
     <t>181558</t>
+  </si>
+  <si>
+    <t>183873</t>
   </si>
   <si>
     <t>190325</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,6 +894,22 @@
         <v>45</v>
       </c>
     </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
+++ b/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>173550</t>
   </si>
@@ -28,7 +28,19 @@
     <t>190325</t>
   </si>
   <si>
+    <t>191128</t>
+  </si>
+  <si>
     <t>191225</t>
+  </si>
+  <si>
+    <t>192478</t>
+  </si>
+  <si>
+    <t>194161</t>
+  </si>
+  <si>
+    <t>201194</t>
   </si>
   <si>
     <t>W17068</t>
@@ -515,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,6 +922,38 @@
         <v>47</v>
       </c>
     </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
+++ b/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>173550</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>201194</t>
+  </si>
+  <si>
+    <t>87092-</t>
   </si>
   <si>
     <t>W17068</t>
@@ -527,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,6 +957,14 @@
         <v>51</v>
       </c>
     </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
+++ b/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>173550</t>
   </si>
   <si>
+    <t>181228</t>
+  </si>
+  <si>
     <t>181558</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>192478</t>
   </si>
   <si>
+    <t>193002</t>
+  </si>
+  <si>
     <t>194161</t>
   </si>
   <si>
@@ -46,12 +52,21 @@
     <t>87092-</t>
   </si>
   <si>
+    <t>W07391</t>
+  </si>
+  <si>
+    <t>W15206</t>
+  </si>
+  <si>
     <t>W17068</t>
   </si>
   <si>
     <t>W17944</t>
   </si>
   <si>
+    <t>W18776</t>
+  </si>
+  <si>
     <t>W19161</t>
   </si>
   <si>
@@ -118,6 +133,9 @@
     <t>W22455</t>
   </si>
   <si>
+    <t>W22650</t>
+  </si>
+  <si>
     <t>W22666</t>
   </si>
   <si>
@@ -142,10 +160,16 @@
     <t>W23084</t>
   </si>
   <si>
+    <t>W23713</t>
+  </si>
+  <si>
     <t>W25873</t>
   </si>
   <si>
     <t>W27694</t>
+  </si>
+  <si>
+    <t>W27715</t>
   </si>
   <si>
     <t>W28055</t>
@@ -530,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -965,6 +989,70 @@
         <v>52</v>
       </c>
     </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
+++ b/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>173550</t>
   </si>
@@ -25,9 +25,15 @@
     <t>181558</t>
   </si>
   <si>
+    <t>182433</t>
+  </si>
+  <si>
     <t>183873</t>
   </si>
   <si>
+    <t>184431</t>
+  </si>
+  <si>
     <t>190325</t>
   </si>
   <si>
@@ -41,6 +47,9 @@
   </si>
   <si>
     <t>193002</t>
+  </si>
+  <si>
+    <t>193067</t>
   </si>
   <si>
     <t>194161</t>
@@ -554,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,6 +1062,30 @@
         <v>60</v>
       </c>
     </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
+++ b/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>173550</t>
   </si>
@@ -25,15 +25,9 @@
     <t>181558</t>
   </si>
   <si>
-    <t>182433</t>
-  </si>
-  <si>
     <t>183873</t>
   </si>
   <si>
-    <t>184431</t>
-  </si>
-  <si>
     <t>190325</t>
   </si>
   <si>
@@ -47,9 +41,6 @@
   </si>
   <si>
     <t>193002</t>
-  </si>
-  <si>
-    <t>193067</t>
   </si>
   <si>
     <t>194161</t>
@@ -563,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1062,30 +1053,6 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
+++ b/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>173550</t>
   </si>
@@ -28,6 +28,12 @@
     <t>183873</t>
   </si>
   <si>
+    <t>184431</t>
+  </si>
+  <si>
+    <t>190258</t>
+  </si>
+  <si>
     <t>190325</t>
   </si>
   <si>
@@ -41,6 +47,9 @@
   </si>
   <si>
     <t>193002</t>
+  </si>
+  <si>
+    <t>193067</t>
   </si>
   <si>
     <t>194161</t>
@@ -554,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,6 +1062,30 @@
         <v>60</v>
       </c>
     </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
+++ b/KaryotypingPinnacle/CNN/Unique_patientID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>173550</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>W07391</t>
+  </si>
+  <si>
+    <t>W12813</t>
   </si>
   <si>
     <t>W15206</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1086,6 +1089,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
